--- a/excelfile/示範_定義範圍與INDIRECT函數.xlsx
+++ b/excelfile/示範_定義範圍與INDIRECT函數.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvhongxiang/0711/chackpoint/excelfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvhongxiang/chackpoint/excelfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121591B4-30F3-7B4A-B30E-B5F8AA74EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804C6027-D556-6245-94F7-019DD13498FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{3671CC28-D42A-480F-A198-78C96A816E63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="3" xr2:uid="{3671CC28-D42A-480F-A198-78C96A816E63}"/>
   </bookViews>
   <sheets>
     <sheet name="定義名稱" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,26 @@
   </sheets>
   <definedNames>
     <definedName name="奶油燻鮭魚麵" localSheetId="2">'結合應用 (ANS)'!$L$17:$M$17</definedName>
+    <definedName name="奶油燻鮭魚麵">結合應用!$L$17:$M$17</definedName>
     <definedName name="沙朗牛排" localSheetId="2">'結合應用 (ANS)'!$L$13:$M$13</definedName>
+    <definedName name="沙朗牛排">結合應用!$L$13:$M$13</definedName>
     <definedName name="青醬雞肉義大利麵" localSheetId="2">'結合應用 (ANS)'!$L$15:$M$15</definedName>
+    <definedName name="青醬雞肉義大利麵">結合應用!$L$15:$M$15</definedName>
     <definedName name="套餐" localSheetId="2">'結合應用 (ANS)'!$M$12:$M$17</definedName>
+    <definedName name="套餐">結合應用!$M$12:$M$17</definedName>
     <definedName name="拿坡里番茄麵" localSheetId="2">'結合應用 (ANS)'!$L$16:$M$16</definedName>
+    <definedName name="拿坡里番茄麵">結合應用!$L$16:$M$16</definedName>
     <definedName name="排餐" localSheetId="2">'結合應用 (ANS)'!$L$4:$N$4</definedName>
+    <definedName name="排餐">結合應用!$L$4:$N$4</definedName>
     <definedName name="單點" localSheetId="2">'結合應用 (ANS)'!$L$12:$L$17</definedName>
+    <definedName name="單點">結合應用!$L$12:$L$17</definedName>
     <definedName name="菲力牛排" localSheetId="2">'結合應用 (ANS)'!$L$12:$M$12</definedName>
+    <definedName name="菲力牛排">結合應用!$L$12:$M$12</definedName>
     <definedName name="義大利麵" localSheetId="2">'結合應用 (ANS)'!$L$5:$N$5</definedName>
+    <definedName name="義大利麵">結合應用!$L$5:$N$5</definedName>
     <definedName name="戰斧豬排" localSheetId="2">'結合應用 (ANS)'!$L$14:$M$14</definedName>
+    <definedName name="戰斧豬排">結合應用!$L$14:$M$14</definedName>
+    <definedName name="餐點名稱">結合應用!$L$12:$M$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>單價</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,6 +231,12 @@
   <si>
     <t>=INDIRECT("B"&amp;A5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排餐</t>
+  </si>
+  <si>
+    <t>菲力牛排</t>
   </si>
 </sst>
 </file>
@@ -804,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB4EB0D-6CA5-40F0-829A-40D391B9F996}">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1054,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F814789B-CD11-4912-BB25-2F1D759E6A47}">
   <dimension ref="C4:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1106,7 +1123,17 @@
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT(E5) INDIRECT(G5)</f>
+        <v>420</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>16</v>
